--- a/biology/Botanique/Jardins_du_Partal/Jardins_du_Partal.xlsx
+++ b/biology/Botanique/Jardins_du_Partal/Jardins_du_Partal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Jardins du Partal sont dans l'Alhambra, accessibles en sortie des palais Nazaris. On peut également les visiter sans passer par les palais, en passant à droite des murs du palais de Charles Quint, par un chemin s'opposant à son entrée principale. La vue sur l'Albaicin avec en avant plan le bassin réfléchissant le portique des Dames et ses colonnades, ainsi que les palmiers le bordant, est d'une pureté passée.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le goût de la décoration pousse même à insérer des motifs sur les galets formant le pavement des escaliers.
 Les jardins du Partal vus du palais-terrasse de Yusuf.
@@ -543,7 +557,9 @@
           <t>Le portique du Partal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tour des Dames, et galerie de photos</t>
         </is>
@@ -573,7 +589,9 @@
           <t>La terrasse du Partal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Palais-terrasse de Yusuf : Yusuf venait y prendre ombrage alors que le Généralife était en construction sur l'autre versant de la colline de la Sabika.</t>
         </is>
